--- a/xlsx/理想国_intext.xlsx
+++ b/xlsx/理想国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>理想国</t>
   </si>
@@ -29,7 +29,7 @@
     <t>柏拉图</t>
   </si>
   <si>
-    <t>政策_政策_政治學_理想国</t>
+    <t>政策_政策_政治学_理想国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E8%AF%AD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>柏拉圖實在論</t>
+    <t>柏拉图实在论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Demiurge</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E7%BE%A9%E5%AE%B6%E8%AC%AC%E8%AA%A4</t>
   </si>
   <si>
-    <t>定義家謬誤</t>
+    <t>定义家谬误</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%9F%8F%E6%8B%89%E5%9B%BE%E5%AF%B9%E8%AF%9D%E5%BD%95</t>
@@ -269,9 +269,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%A6%C2%B7%E5%B8%83%E9%B2%81%E5%A7%86</t>
   </si>
   <si>
@@ -287,13 +284,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -305,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>倫理學</t>
+    <t>伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E6%8B%89%E5%BA%95</t>
@@ -335,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭政治</t>
+    <t>寡头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -359,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>君主政體</t>
+    <t>君主政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%AC%8A</t>
   </si>
   <si>
-    <t>分權</t>
+    <t>分权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B3%E9%BA%93%E4%B9%A6%E7%A4%BE</t>
@@ -407,13 +401,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>台灣商務印書館</t>
+    <t>台湾商务印书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2009,7 +2003,7 @@
         <v>83</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -2035,10 +2029,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2064,10 +2058,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2093,10 +2087,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2122,10 +2116,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2151,10 +2145,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2180,10 +2174,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2209,10 +2203,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2238,10 +2232,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2267,10 +2261,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -2296,10 +2290,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2325,10 +2319,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2354,10 +2348,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2383,10 +2377,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2412,10 +2406,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2441,10 +2435,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2470,10 +2464,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2499,10 +2493,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2528,10 +2522,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2557,10 +2551,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2586,10 +2580,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -2615,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2644,10 +2638,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2673,10 +2667,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -2702,10 +2696,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -2731,10 +2725,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2760,10 +2754,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2789,10 +2783,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2818,10 +2812,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2847,10 +2841,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2876,10 +2870,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
